--- a/Input Paths.xlsx
+++ b/Input Paths.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>main_file_path</t>
   </si>
@@ -99,40 +99,96 @@
     <t>reference_list_path</t>
   </si>
   <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\SAP Data OCT'23.xslx</t>
-  </si>
-  <si>
-    <t>sap_filter_list</t>
-  </si>
-  <si>
-    <t>output_path</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Meijer current month branch.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Meijer previous month branch.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Meijer unknown.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Meijer branch.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Meijer dq.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\MEIJER_SEP23.xlsx</t>
-  </si>
-  <si>
-    <t>Meijer</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Flat File Process Files\MEIJER_SEP23.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Flat File Process Files\DQ Config File.xlsx</t>
+  </si>
+  <si>
+    <t>sap_filter_list_path</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\Downloads\Humana (Right Source)_SEP23.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\Downloads\SAP Data OCT'23.xlsx</t>
+  </si>
+  <si>
+    <t>Humana (Right Source)</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\Downloads\Humana Ins.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\Downloads\Humana BO.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\Downloads\Humana SAP Filters.xlsx</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Path where supplier file exists</t>
+  </si>
+  <si>
+    <t>Path where complete DQ column file exists</t>
+  </si>
+  <si>
+    <t>Path of Branch Report file, generated from Branch portal</t>
+  </si>
+  <si>
+    <t>Paths of current month and previous month DQ branch outputs, to be used when:
+Branch analysis is needed</t>
+  </si>
+  <si>
+    <t>Path of DQ Qty_Min Output file</t>
+  </si>
+  <si>
+    <t>Path of DQ Qty_Max Output file</t>
+  </si>
+  <si>
+    <t>Path of DQ Unexpected Zip Output file</t>
+  </si>
+  <si>
+    <t>Path of DQ Unknown Roche NDCs Output file</t>
+  </si>
+  <si>
+    <t>Path of DQ UOM Inconsistencies Output file</t>
+  </si>
+  <si>
+    <t>Path of TXN Count, extracted from Txn SQL Query</t>
+  </si>
+  <si>
+    <t>Path of Raw data file, extracted from Raw Query</t>
+  </si>
+  <si>
+    <t>Path of Combined ins file, extracted from Combined Ins Query</t>
+  </si>
+  <si>
+    <t>Path of BO file, generated from BO Portal:
+Only include for files which have 13 months data</t>
+  </si>
+  <si>
+    <t>Path of SAP filters file, prepared for each supplier separately</t>
+  </si>
+  <si>
+    <t>Path of reference list file which includes filters to be applied in Combined Ins data for each supplier separately, to be refreshed monthly using SQL Query prepared</t>
+  </si>
+  <si>
+    <t>Path of File which contains every supplier name and information about its category (W/SD/SP), staple file and only needs to be modified if new supplier is onboarded</t>
+  </si>
+  <si>
+    <t>Path of TPC File, staple file, needs to be updated daily</t>
+  </si>
+  <si>
+    <t>Path of DQ Config file, downloaded from DQ dashboard</t>
+  </si>
+  <si>
+    <t>Path of File that contains factoring information of all NDC, staple file, only needs to be modified in case of new information</t>
+  </si>
+  <si>
+    <t>Path of SAP Data File, needs to be updated monthly</t>
+  </si>
+  <si>
+    <t>Name of input file</t>
   </si>
 </sst>
 </file>
@@ -163,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,11 +233,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,21 +308,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -498,176 +658,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5546875" customWidth="1"/>
     <col min="2" max="2" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C18" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C19" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C20" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C21" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+      <c r="C23" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Input Paths.xlsx
+++ b/Input Paths.xlsx
@@ -21,54 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
-    <t>main_file_path</t>
-  </si>
-  <si>
-    <t>new_month_dq_file_path</t>
-  </si>
-  <si>
-    <t>supplier_names_file_path</t>
-  </si>
-  <si>
-    <t>tpc_file_path</t>
-  </si>
-  <si>
-    <t>branch_report_file_path</t>
-  </si>
-  <si>
-    <t>current_month_branch_dq_file_path</t>
-  </si>
-  <si>
-    <t>previous_month_branch_dq_file_path</t>
-  </si>
-  <si>
-    <t>txn_count_file_path</t>
-  </si>
-  <si>
-    <t>dq_qty_min_file_path</t>
-  </si>
-  <si>
-    <t>dq_qty_max_file_path</t>
-  </si>
-  <si>
-    <t>dq_zip_code_file_path</t>
-  </si>
-  <si>
-    <t>dq_unknown_roche_ndc_file_path</t>
-  </si>
-  <si>
-    <t>dq_config_file_path</t>
-  </si>
-  <si>
-    <t>dq_uom_inconsistencies_file_path</t>
-  </si>
-  <si>
-    <t>raw_data_file_path</t>
-  </si>
-  <si>
-    <t>ndc_factoring_values_file_path</t>
-  </si>
-  <si>
     <t>Variable Name</t>
   </si>
   <si>
@@ -78,117 +30,165 @@
     <t>supplier_name</t>
   </si>
   <si>
-    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Flat File Process Files\Supplier Names TPC.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Flat File Process Files\TPC File.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Flat File Process Files\NDC Factoring Values.xlsx</t>
-  </si>
-  <si>
-    <t>combined_ins_path</t>
-  </si>
-  <si>
-    <t>bo_file_path</t>
-  </si>
-  <si>
-    <t>sap_ins_file_path</t>
-  </si>
-  <si>
-    <t>reference_list_path</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Flat File Process Files\DQ Config File.xlsx</t>
-  </si>
-  <si>
-    <t>sap_filter_list_path</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Humana (Right Source)_SEP23.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\SAP Data OCT'23.xlsx</t>
-  </si>
-  <si>
     <t>Humana (Right Source)</t>
   </si>
   <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Humana Ins.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Humana BO.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\pragyan.agrawal\Downloads\Humana SAP Filters.xlsx</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>Path where supplier file exists</t>
-  </si>
-  <si>
-    <t>Path where complete DQ column file exists</t>
-  </si>
-  <si>
-    <t>Path of Branch Report file, generated from Branch portal</t>
-  </si>
-  <si>
-    <t>Paths of current month and previous month DQ branch outputs, to be used when:
+    <t>Name of input file</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Raw_Files_Folder</t>
+  </si>
+  <si>
+    <t>Path of main folder where all the files below exist</t>
+  </si>
+  <si>
+    <t>folder_path</t>
+  </si>
+  <si>
+    <t>Name where supplier's previous month file exists</t>
+  </si>
+  <si>
+    <t>Name where complete DQ column file exists</t>
+  </si>
+  <si>
+    <t>Name of Branch Report file, generated from Branch portal</t>
+  </si>
+  <si>
+    <t>Names of current month and previous month DQ branch outputs, to be used when:
 Branch analysis is needed</t>
   </si>
   <si>
-    <t>Path of DQ Qty_Min Output file</t>
-  </si>
-  <si>
-    <t>Path of DQ Qty_Max Output file</t>
-  </si>
-  <si>
-    <t>Path of DQ Unexpected Zip Output file</t>
-  </si>
-  <si>
-    <t>Path of DQ Unknown Roche NDCs Output file</t>
-  </si>
-  <si>
-    <t>Path of DQ UOM Inconsistencies Output file</t>
-  </si>
-  <si>
-    <t>Path of TXN Count, extracted from Txn SQL Query</t>
-  </si>
-  <si>
-    <t>Path of Raw data file, extracted from Raw Query</t>
-  </si>
-  <si>
-    <t>Path of Combined ins file, extracted from Combined Ins Query</t>
-  </si>
-  <si>
-    <t>Path of BO file, generated from BO Portal:
+    <t>Name of TXN Count, extracted from Txn SQL Query</t>
+  </si>
+  <si>
+    <t>Name of DQ Qty_Min Output file</t>
+  </si>
+  <si>
+    <t>Name of DQ Qty_Max Output file</t>
+  </si>
+  <si>
+    <t>Name of DQ Unexpected Zip Output file</t>
+  </si>
+  <si>
+    <t>Name of DQ Unknown Roche NDCs Output file</t>
+  </si>
+  <si>
+    <t>Name of DQ UOM Inconsistencies Output file</t>
+  </si>
+  <si>
+    <t>Name of Raw data file, extracted from Raw Query</t>
+  </si>
+  <si>
+    <t>Name of Combined ins file, extracted from Combined Ins Query</t>
+  </si>
+  <si>
+    <t>Name of BO file, generated from BO Portal:
 Only include for files which have 13 months data</t>
   </si>
   <si>
-    <t>Path of SAP filters file, prepared for each supplier separately</t>
-  </si>
-  <si>
-    <t>Path of reference list file which includes filters to be applied in Combined Ins data for each supplier separately, to be refreshed monthly using SQL Query prepared</t>
-  </si>
-  <si>
-    <t>Path of File which contains every supplier name and information about its category (W/SD/SP), staple file and only needs to be modified if new supplier is onboarded</t>
-  </si>
-  <si>
-    <t>Path of TPC File, staple file, needs to be updated daily</t>
-  </si>
-  <si>
-    <t>Path of DQ Config file, downloaded from DQ dashboard</t>
-  </si>
-  <si>
-    <t>Path of File that contains factoring information of all NDC, staple file, only needs to be modified in case of new information</t>
-  </si>
-  <si>
-    <t>Path of SAP Data File, needs to be updated monthly</t>
-  </si>
-  <si>
-    <t>Name of input file</t>
+    <t>Name of reference list file which includes filters to be applied in Combined Ins data for each supplier separately, to be refreshed monthly using SQL Query prepared</t>
+  </si>
+  <si>
+    <t>Name of SAP filters file, prepared for each supplier separately</t>
+  </si>
+  <si>
+    <t>Name of SAP Data File, needs to be updated monthly</t>
+  </si>
+  <si>
+    <t>Name of File which contains every supplier name and information about its category (W/SD/SP), staple file and only needs to be modified if new supplier is onboarded</t>
+  </si>
+  <si>
+    <t>Name of TPC File, staple file, needs to be updated daily</t>
+  </si>
+  <si>
+    <t>Name of DQ Config file, downloaded from DQ dashboard</t>
+  </si>
+  <si>
+    <t>Name of File that contains factoring information of all NDC, staple file, only needs to be modified in case of new information</t>
+  </si>
+  <si>
+    <t>Humana (Right Source)_SEP23</t>
+  </si>
+  <si>
+    <t>SAP Data OCT'23</t>
+  </si>
+  <si>
+    <t>Supplier Names TPC</t>
+  </si>
+  <si>
+    <t>TPC File</t>
+  </si>
+  <si>
+    <t>DQ Config File</t>
+  </si>
+  <si>
+    <t>NDC Factoring Values</t>
+  </si>
+  <si>
+    <t>main_file</t>
+  </si>
+  <si>
+    <t>new_month_dq_file</t>
+  </si>
+  <si>
+    <t>branch_report_file</t>
+  </si>
+  <si>
+    <t>current_month_branch_dq_file</t>
+  </si>
+  <si>
+    <t>previous_month_branch_dq_file</t>
+  </si>
+  <si>
+    <t>txn_count_file</t>
+  </si>
+  <si>
+    <t>dq_qty_min_file</t>
+  </si>
+  <si>
+    <t>dq_qty_max_file</t>
+  </si>
+  <si>
+    <t>dq_zip_code_file</t>
+  </si>
+  <si>
+    <t>dq_unknown_roche_ndc_file</t>
+  </si>
+  <si>
+    <t>dq_uom_inconsistencies_file</t>
+  </si>
+  <si>
+    <t>raw_data_file</t>
+  </si>
+  <si>
+    <t>combined_ins</t>
+  </si>
+  <si>
+    <t>bo_file</t>
+  </si>
+  <si>
+    <t>reference_list</t>
+  </si>
+  <si>
+    <t>sap_filter_list</t>
+  </si>
+  <si>
+    <t>sap_ins_file</t>
+  </si>
+  <si>
+    <t>supplier_names_file</t>
+  </si>
+  <si>
+    <t>tpc_file</t>
+  </si>
+  <si>
+    <t>dq_config_file</t>
+  </si>
+  <si>
+    <t>ndc_factoring_values_file</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +284,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -323,13 +329,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,6 +407,49 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -658,245 +733,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
+      <c r="A3" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="22" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
+      <c r="A9" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
+      <c r="A10" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
+      <c r="A11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
-        <v>42</v>
+      <c r="A12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>43</v>
+      <c r="A13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>14</v>
+      <c r="A14" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>53</v>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Input Paths.xlsx
+++ b/Input Paths.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Variable Name</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>supplier_name</t>
-  </si>
-  <si>
-    <t>Humana (Right Source)</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -110,9 +107,6 @@
     <t>Name of File that contains factoring information of all NDC, staple file, only needs to be modified in case of new information</t>
   </si>
   <si>
-    <t>Humana (Right Source)_SEP23</t>
-  </si>
-  <si>
     <t>SAP Data OCT'23</t>
   </si>
   <si>
@@ -189,6 +183,21 @@
   </si>
   <si>
     <t>ndc_factoring_values_file</t>
+  </si>
+  <si>
+    <t>RELIANCERX</t>
+  </si>
+  <si>
+    <t>RELIANCERX_SEP23</t>
+  </si>
+  <si>
+    <t>RELIANCERX Ins</t>
+  </si>
+  <si>
+    <t>RELIANCERX BO</t>
+  </si>
+  <si>
+    <t>RELIANCERX BRANCH</t>
   </si>
 </sst>
 </file>
@@ -408,12 +417,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -450,6 +453,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -739,241 +748,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>36</v>
+      <c r="A5" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="7" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>41</v>
+      <c r="A10" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>42</v>
+      <c r="A11" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>43</v>
+      <c r="A12" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>44</v>
+      <c r="A13" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>45</v>
+      <c r="A14" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>46</v>
+      <c r="A15" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>49</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>50</v>
+      <c r="A19" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="C22" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="C23" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Input Paths.xlsx
+++ b/Input Paths.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Variable Name</t>
   </si>
@@ -33,22 +33,10 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Name of input file</t>
-  </si>
-  <si>
     <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Raw_Files_Folder</t>
   </si>
   <si>
-    <t>Path of main folder where all the files below exist</t>
-  </si>
-  <si>
     <t>folder_path</t>
-  </si>
-  <si>
-    <t>Name where supplier's previous month file exists</t>
-  </si>
-  <si>
-    <t>Name where complete DQ column file exists</t>
   </si>
   <si>
     <t>Name of Branch Report file, generated from Branch portal</t>
@@ -95,21 +83,9 @@
     <t>Name of SAP Data File, needs to be updated monthly</t>
   </si>
   <si>
-    <t>Name of File which contains every supplier name and information about its category (W/SD/SP), staple file and only needs to be modified if new supplier is onboarded</t>
-  </si>
-  <si>
-    <t>Name of TPC File, staple file, needs to be updated daily</t>
-  </si>
-  <si>
     <t>Name of DQ Config file, downloaded from DQ dashboard</t>
   </si>
   <si>
-    <t>Name of File that contains factoring information of all NDC, staple file, only needs to be modified in case of new information</t>
-  </si>
-  <si>
-    <t>SAP Data OCT'23</t>
-  </si>
-  <si>
     <t>Supplier Names TPC</t>
   </si>
   <si>
@@ -185,26 +161,74 @@
     <t>ndc_factoring_values_file</t>
   </si>
   <si>
-    <t>RELIANCERX</t>
-  </si>
-  <si>
-    <t>RELIANCERX_SEP23</t>
-  </si>
-  <si>
-    <t>RELIANCERX Ins</t>
-  </si>
-  <si>
-    <t>RELIANCERX BO</t>
-  </si>
-  <si>
-    <t>RELIANCERX BRANCH</t>
+    <t>supplier_folder_path</t>
+  </si>
+  <si>
+    <t>Path of main folder where all the staple config files exist, needs to be changed only if all files are collectively moved, Mandatory</t>
+  </si>
+  <si>
+    <t>Path of supplier folder where all the files related to supplier analysis exist, needs to be changed for every supplier, Mandatory</t>
+  </si>
+  <si>
+    <t>Name of input file, Mandatory</t>
+  </si>
+  <si>
+    <t>Name where supplier's previous month file exists, Mandatory</t>
+  </si>
+  <si>
+    <t>Name of File which contains every supplier name and information about its category (W/SD/SP), staple file and only needs to be modified if new supplier is onboarded, Mandatory</t>
+  </si>
+  <si>
+    <t>Name of File that contains factoring information of all NDC, staple file, only needs to be modified in case of new information, Mandatory if QTY MIN/MAX Flags reported</t>
+  </si>
+  <si>
+    <t>Name where complete DQ column file exists, Mandatory if any of the DQ functions are to be used</t>
+  </si>
+  <si>
+    <t>Name of TPC File, staple file, needs to be updated daily, Mandatory if DQ Analysis needs to be done</t>
+  </si>
+  <si>
+    <t>SAP Data NOV'23</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>AMBER_OCT23</t>
+  </si>
+  <si>
+    <t>amber dq</t>
+  </si>
+  <si>
+    <t>amber branch</t>
+  </si>
+  <si>
+    <t>amber curr branch</t>
+  </si>
+  <si>
+    <t>amber prev branch</t>
+  </si>
+  <si>
+    <t>amber unknown</t>
+  </si>
+  <si>
+    <t>amber ins</t>
+  </si>
+  <si>
+    <t>amber bo</t>
+  </si>
+  <si>
+    <t>Amber Ref</t>
+  </si>
+  <si>
+    <t>C:\Users\pragyan.agrawal\OneDrive - Incedo Technology Solutions Ltd\Desktop\Raw_Files_Folder\Amber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +247,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,54 +402,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -453,6 +466,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -742,258 +767,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="B24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="C25" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
